--- a/MIS/CO/Datos Conexion.xlsx
+++ b/MIS/CO/Datos Conexion.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdelatorre\Documents\Temporales\Proyectos\8. Shells\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdelatorre\Documents\Temporales\Proyectos\8. Shells\Repositorio\MIS\CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08131407-61A8-4F56-A936-5CAE0A8E3E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC239AE-535E-4DE7-BA96-21A1E2C5DC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{9E7333D3-DA9D-4A9F-84EC-108853DD3DFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" xr2:uid="{9E7333D3-DA9D-4A9F-84EC-108853DD3DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="10" r:id="rId1"/>
     <sheet name="Conexion" sheetId="12" r:id="rId2"/>
     <sheet name="Avance Actividades" sheetId="11" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>ap39526</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>CCSS_D_WCS_145791_User</t>
+  </si>
+  <si>
+    <t>EL66666</t>
+  </si>
+  <si>
+    <t>h1L8Zfm9</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
+  </si>
+  <si>
+    <t>NX7011</t>
+  </si>
+  <si>
+    <t>NX7012</t>
   </si>
 </sst>
 </file>
@@ -608,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1017,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846E2BEA-913A-4922-8EFA-F760D66EEDE8}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,10 +1045,11 @@
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
@@ -1043,18 +1060,22 @@
         <v>91</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -1064,11 +1085,14 @@
       <c r="D4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>24</v>
       </c>
@@ -1078,11 +1102,14 @@
       <c r="D5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
@@ -1092,21 +1119,25 @@
       <c r="D6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
@@ -1115,8 +1146,9 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>89</v>
       </c>
@@ -1127,8 +1159,9 @@
         <v>92</v>
       </c>
       <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>29</v>
       </c>
@@ -1138,11 +1171,12 @@
       <c r="D10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
@@ -1150,19 +1184,21 @@
         <v>36</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>96</v>
       </c>
@@ -1172,11 +1208,12 @@
       <c r="D13" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>94</v>
       </c>
@@ -1186,11 +1223,12 @@
       <c r="D14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>100</v>
       </c>
@@ -1200,11 +1238,12 @@
       <c r="D15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>103</v>
       </c>
@@ -1214,52 +1253,58 @@
       <c r="D16" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="14">
         <v>5547380437</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="35"/>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="30" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="14">
         <v>7810858516</v>
       </c>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{0633D25C-C33C-4AB7-8440-1B29496A05FC}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{22600D44-1345-4842-8EDB-119714165F33}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{0633D25C-C33C-4AB7-8440-1B29496A05FC}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{22600D44-1345-4842-8EDB-119714165F33}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{3479879E-0D89-4544-84B9-1A4B14321F25}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{D8FA5FB9-9B5C-4DE1-A7E5-866FEA6143F9}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{D8FA5FB9-9B5C-4DE1-A7E5-866FEA6143F9}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{FAF1EFD5-F3DA-49A6-983E-432BE4D55BED}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{3039C0D0-B478-4DD9-A683-081F78A4294D}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{58ACD6AA-F23E-49C5-99A9-6371CE67D0C6}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{DA84C8C1-766B-481D-B857-DD398848FD82}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{E649933F-0BC1-4CF2-9A6E-7128173E19CC}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{42F5B12D-B434-460D-ABC3-D9AC9DDEC0A6}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{E649933F-0BC1-4CF2-9A6E-7128173E19CC}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{42F5B12D-B434-460D-ABC3-D9AC9DDEC0A6}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{D326E226-7DF0-4CEF-BB9E-D988D77B2C80}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{332C6939-34FC-4275-8092-C205BB7CA78B}"/>
     <hyperlink ref="C9" r:id="rId13" xr:uid="{F3FE9430-E8FE-4C6A-A38B-81736A9BBCCA}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{857E7586-0647-47C9-8104-8421EF6ED983}"/>
-    <hyperlink ref="E14" r:id="rId15" xr:uid="{21553152-346B-4C63-A091-CF4C2591E460}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{307B05EC-7A39-48E4-A5A5-42494A4AADF7}"/>
-    <hyperlink ref="E15" r:id="rId17" xr:uid="{93895552-D2D8-461D-9BC5-6039F0A19FA9}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{857E7586-0647-47C9-8104-8421EF6ED983}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{21553152-346B-4C63-A091-CF4C2591E460}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{307B05EC-7A39-48E4-A5A5-42494A4AADF7}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{93895552-D2D8-461D-9BC5-6039F0A19FA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -1270,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BDC17D-CC8A-46FB-AC23-5C3477103F82}">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1310,14 +1355,14 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
@@ -1420,14 +1465,14 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
@@ -1524,14 +1569,14 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
@@ -1570,14 +1615,14 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
@@ -1595,7 +1640,7 @@
       <c r="B26" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="31" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="26"/>
@@ -1656,16 +1701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
